--- a/attack_time.xlsx
+++ b/attack_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="16">
   <si>
     <t>FaceNet</t>
   </si>
@@ -43,10 +43,25 @@
     <t>LightCNN</t>
   </si>
   <si>
-    <t>wbl2</t>
-  </si>
-  <si>
-    <t>wbglass</t>
+    <t>wbl2_5</t>
+  </si>
+  <si>
+    <t>wbl2_6</t>
+  </si>
+  <si>
+    <t>wbl2_7</t>
+  </si>
+  <si>
+    <t>wbl2_8</t>
+  </si>
+  <si>
+    <t>wbl2_9</t>
+  </si>
+  <si>
+    <t>wblinf_1</t>
+  </si>
+  <si>
+    <t>wblinf_2</t>
   </si>
 </sst>
 </file>
@@ -404,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:BL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:64">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -442,8 +457,167 @@
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:64">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -475,75 +649,552 @@
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:64">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>5750.107348203659</v>
+        <v>6909.928025007248</v>
       </c>
       <c r="C4">
-        <v>2053.655393362045</v>
+        <v>5071.105081796646</v>
       </c>
       <c r="D4">
-        <v>5630.76248717308</v>
+        <v>5596.537175655365</v>
       </c>
       <c r="E4">
-        <v>1505.045321941376</v>
+        <v>2932.418852567673</v>
       </c>
       <c r="F4">
-        <v>4628.108494520187</v>
+        <v>10024.24049091339</v>
       </c>
       <c r="G4">
-        <v>1639.813145875931</v>
+        <v>3094.133623361588</v>
       </c>
       <c r="H4">
-        <v>2415.602606773376</v>
+        <v>4739.350707530975</v>
       </c>
       <c r="I4">
-        <v>2231.532931804657</v>
+        <v>4476.497152328491</v>
       </c>
       <c r="J4">
-        <v>938.9600760936737</v>
+        <v>1644.353708982468</v>
       </c>
       <c r="K4">
-        <v>5656.562602758408</v>
+        <v>4073.830348730087</v>
+      </c>
+      <c r="L4">
+        <v>2731.493463516235</v>
+      </c>
+      <c r="M4">
+        <v>3986.935929775238</v>
+      </c>
+      <c r="N4">
+        <v>1608.795372962952</v>
+      </c>
+      <c r="O4">
+        <v>4395.415692567825</v>
+      </c>
+      <c r="P4">
+        <v>1700.648274421692</v>
+      </c>
+      <c r="Q4">
+        <v>2996.180342435837</v>
+      </c>
+      <c r="R4">
+        <v>2541.816859483719</v>
+      </c>
+      <c r="S4">
+        <v>564.6828563213348</v>
+      </c>
+      <c r="T4">
+        <v>2503.716245174408</v>
+      </c>
+      <c r="U4">
+        <v>1373.520756483078</v>
+      </c>
+      <c r="V4">
+        <v>2251.596535921097</v>
+      </c>
+      <c r="W4">
+        <v>618.3914082050323</v>
+      </c>
+      <c r="X4">
+        <v>1564.343712806702</v>
+      </c>
+      <c r="Y4">
+        <v>744.9296984672546</v>
+      </c>
+      <c r="Z4">
+        <v>1642.849920511246</v>
+      </c>
+      <c r="AA4">
+        <v>1216.301889181137</v>
+      </c>
+      <c r="AB4">
+        <v>238.8189525604248</v>
+      </c>
+      <c r="AC4">
+        <v>1392.826307535172</v>
+      </c>
+      <c r="AD4">
+        <v>370.9724252223969</v>
+      </c>
+      <c r="AE4">
+        <v>1008.968287706375</v>
+      </c>
+      <c r="AF4">
+        <v>202.6098794937134</v>
+      </c>
+      <c r="AG4">
+        <v>459.6019325256348</v>
+      </c>
+      <c r="AH4">
+        <v>193.7988817691803</v>
+      </c>
+      <c r="AI4">
+        <v>633.353794336319</v>
+      </c>
+      <c r="AJ4">
+        <v>515.8036887645721</v>
+      </c>
+      <c r="AK4">
+        <v>64.82030534744263</v>
+      </c>
+      <c r="AL4">
+        <v>714.1629874706268</v>
+      </c>
+      <c r="AM4">
+        <v>91.87376427650452</v>
+      </c>
+      <c r="AN4">
+        <v>482.1317000389099</v>
+      </c>
+      <c r="AO4">
+        <v>111.2391319274902</v>
+      </c>
+      <c r="AP4">
+        <v>220.485502243042</v>
+      </c>
+      <c r="AQ4">
+        <v>79.12051463127136</v>
+      </c>
+      <c r="AR4">
+        <v>250.9489743709564</v>
+      </c>
+      <c r="AS4">
+        <v>145.4825673103333</v>
+      </c>
+      <c r="AT4">
+        <v>39.27946615219116</v>
+      </c>
+      <c r="AU4">
+        <v>9059.964852571487</v>
+      </c>
+      <c r="AV4">
+        <v>6394.23160982132</v>
+      </c>
+      <c r="AW4">
+        <v>6627.340406417847</v>
+      </c>
+      <c r="AX4">
+        <v>4068.767781972885</v>
+      </c>
+      <c r="AY4">
+        <v>16427.1578540802</v>
+      </c>
+      <c r="AZ4">
+        <v>4503.189554214478</v>
+      </c>
+      <c r="BA4">
+        <v>6433.354524850845</v>
+      </c>
+      <c r="BB4">
+        <v>5800.289793729782</v>
+      </c>
+      <c r="BC4">
+        <v>3457.697546482086</v>
+      </c>
+      <c r="BD4">
+        <v>7812.227344512939</v>
+      </c>
+      <c r="BE4">
+        <v>5620.488692045212</v>
+      </c>
+      <c r="BF4">
+        <v>5914.964901447296</v>
+      </c>
+      <c r="BG4">
+        <v>3252.366363048553</v>
+      </c>
+      <c r="BH4">
+        <v>13862.55628299713</v>
+      </c>
+      <c r="BI4">
+        <v>4774.31472158432</v>
+      </c>
+      <c r="BJ4">
+        <v>8072.552562952042</v>
+      </c>
+      <c r="BK4">
+        <v>4987.75785946846</v>
+      </c>
+      <c r="BL4">
+        <v>3232.250065088272</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:64">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5750.107348680496</v>
+        <v>6909.928025722504</v>
       </c>
       <c r="C5">
-        <v>2053.65539431572</v>
+        <v>5071.105082511902</v>
       </c>
       <c r="D5">
-        <v>5630.762487649918</v>
+        <v>5596.537176132202</v>
       </c>
       <c r="E5">
-        <v>1505.04532289505</v>
+        <v>2932.418853282928</v>
       </c>
       <c r="F5">
-        <v>4628.108495950699</v>
+        <v>10024.24049115181</v>
       </c>
       <c r="G5">
-        <v>1639.813146829605</v>
+        <v>3094.133623838425</v>
       </c>
       <c r="H5">
-        <v>2415.602607488632</v>
+        <v>4739.35070848465</v>
       </c>
       <c r="I5">
-        <v>2231.532932519913</v>
+        <v>4476.497152805328</v>
       </c>
       <c r="J5">
-        <v>938.960077047348</v>
+        <v>1644.353709459305</v>
       </c>
       <c r="K5">
-        <v>5656.562603473663</v>
+        <v>4073.830348968506</v>
+      </c>
+      <c r="L5">
+        <v>2731.493464231491</v>
+      </c>
+      <c r="M5">
+        <v>3986.935930252075</v>
+      </c>
+      <c r="N5">
+        <v>1608.795373678207</v>
+      </c>
+      <c r="O5">
+        <v>4395.415693283081</v>
+      </c>
+      <c r="P5">
+        <v>1700.648274898529</v>
+      </c>
+      <c r="Q5">
+        <v>2996.180343151093</v>
+      </c>
+      <c r="R5">
+        <v>2541.816859960556</v>
+      </c>
+      <c r="S5">
+        <v>564.6828570365906</v>
+      </c>
+      <c r="T5">
+        <v>2503.716245651245</v>
+      </c>
+      <c r="U5">
+        <v>1373.520757436752</v>
+      </c>
+      <c r="V5">
+        <v>2251.596536397934</v>
+      </c>
+      <c r="W5">
+        <v>618.3914086818695</v>
+      </c>
+      <c r="X5">
+        <v>1564.343713760376</v>
+      </c>
+      <c r="Y5">
+        <v>744.9296991825104</v>
+      </c>
+      <c r="Z5">
+        <v>1642.849920988083</v>
+      </c>
+      <c r="AA5">
+        <v>1216.301890134811</v>
+      </c>
+      <c r="AB5">
+        <v>238.8189532756805</v>
+      </c>
+      <c r="AC5">
+        <v>1392.826308012009</v>
+      </c>
+      <c r="AD5">
+        <v>370.9724261760712</v>
+      </c>
+      <c r="AE5">
+        <v>1008.968288421631</v>
+      </c>
+      <c r="AF5">
+        <v>202.6098802089691</v>
+      </c>
+      <c r="AG5">
+        <v>459.6019332408905</v>
+      </c>
+      <c r="AH5">
+        <v>193.798882484436</v>
+      </c>
+      <c r="AI5">
+        <v>633.3537948131561</v>
+      </c>
+      <c r="AJ5">
+        <v>515.8036894798279</v>
+      </c>
+      <c r="AK5">
+        <v>64.82030606269836</v>
+      </c>
+      <c r="AL5">
+        <v>714.162987947464</v>
+      </c>
+      <c r="AM5">
+        <v>91.87376499176025</v>
+      </c>
+      <c r="AN5">
+        <v>482.1317005157471</v>
+      </c>
+      <c r="AO5">
+        <v>111.2391324043274</v>
+      </c>
+      <c r="AP5">
+        <v>220.4855029582977</v>
+      </c>
+      <c r="AQ5">
+        <v>79.1205153465271</v>
+      </c>
+      <c r="AR5">
+        <v>250.9489750862122</v>
+      </c>
+      <c r="AS5">
+        <v>145.482568025589</v>
+      </c>
+      <c r="AT5">
+        <v>39.27946710586548</v>
+      </c>
+      <c r="AU5">
+        <v>9059.964853286743</v>
+      </c>
+      <c r="AV5">
+        <v>6394.231610536575</v>
+      </c>
+      <c r="AW5">
+        <v>6627.340407133102</v>
+      </c>
+      <c r="AX5">
+        <v>4068.767782449722</v>
+      </c>
+      <c r="AY5">
+        <v>16427.15785479546</v>
+      </c>
+      <c r="AZ5">
+        <v>4503.189554691315</v>
+      </c>
+      <c r="BA5">
+        <v>6433.354525327682</v>
+      </c>
+      <c r="BB5">
+        <v>5800.289794445038</v>
+      </c>
+      <c r="BC5">
+        <v>3457.697547674179</v>
+      </c>
+      <c r="BD5">
+        <v>7812.227345228195</v>
+      </c>
+      <c r="BE5">
+        <v>5620.488692760468</v>
+      </c>
+      <c r="BF5">
+        <v>5914.964902162552</v>
+      </c>
+      <c r="BG5">
+        <v>3252.366363763809</v>
+      </c>
+      <c r="BH5">
+        <v>13862.55628347397</v>
+      </c>
+      <c r="BI5">
+        <v>4774.314722299576</v>
+      </c>
+      <c r="BJ5">
+        <v>8072.552563905716</v>
+      </c>
+      <c r="BK5">
+        <v>4987.757859945297</v>
+      </c>
+      <c r="BL5">
+        <v>3232.250065803528</v>
       </c>
     </row>
   </sheetData>
